--- a/biology/Botanique/Erythronium_japonicum/Erythronium_japonicum.xlsx
+++ b/biology/Botanique/Erythronium_japonicum/Erythronium_japonicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythronium japonicum est une espèce de plante herbacée de la famille des Liliaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Erythronium japonicum est originaire du Japon et de la Corée.
 </t>
@@ -542,7 +556,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur d'Erythronium japonicum s'épanouit au début du printemps.
 </t>
@@ -573,7 +589,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Katakuri en japonais</t>
         </is>
@@ -603,9 +621,11 @@
           <t>Usage alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains bulbes sont comestibles comme légume racine, cuit, séché ou moulu en farine. Les feuilles peuvent également être cuites. Au Japon, le bulbe de Erythronium japonicum est utilisé pour produire de l'amidon, sous la forme d'une fine poudre blanche et soyeuse : katakuriko. Ce katakuriko était régulièrement utilisé en tant que liant de sauce à l'instar de la Maïzena ou pour accompagner le tempura, essentiellement lorsque la friture doit être rapide afin de ne pas dégrader la garniture. Le katakuriko est aujourd'hui fabriqué à partir de pommes de terre, moins onéreuses et plus abondantes[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains bulbes sont comestibles comme légume racine, cuit, séché ou moulu en farine. Les feuilles peuvent également être cuites. Au Japon, le bulbe de Erythronium japonicum est utilisé pour produire de l'amidon, sous la forme d'une fine poudre blanche et soyeuse : katakuriko. Ce katakuriko était régulièrement utilisé en tant que liant de sauce à l'instar de la Maïzena ou pour accompagner le tempura, essentiellement lorsque la friture doit être rapide afin de ne pas dégrader la garniture. Le katakuriko est aujourd'hui fabriqué à partir de pommes de terre, moins onéreuses et plus abondantes.
 </t>
         </is>
       </c>
